--- a/scene_cat_exp_2023.2.2_english/input_files/61_scenecat_memory_bedrooms_2.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/61_scenecat_memory_bedrooms_2.xlsx
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>446</v>
+        <v>284</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -500,50 +500,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_ozxpp.png</t>
+          <t>stimuli/img_anzgh.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>26.26470588235294</v>
+        <v>75.10526315789474</v>
       </c>
       <c r="N2">
-        <v>11.47058823529412</v>
+        <v>55.76315789473684</v>
       </c>
       <c r="O2">
-        <v>18.86764705882353</v>
+        <v>65.43421052631579</v>
       </c>
       <c r="P2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -556,7 +561,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -565,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>447</v>
+        <v>285</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -594,38 +599,38 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_e26ut.png</t>
+          <t>stimuli/img_ose78.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>81.07692307692308</v>
+        <v>80.19444444444444</v>
       </c>
       <c r="N3">
-        <v>61.28205128205128</v>
+        <v>60.25</v>
       </c>
       <c r="O3">
-        <v>71.17948717948718</v>
+        <v>70.22222222222223</v>
       </c>
       <c r="P3">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q3">
         <v>8</v>
       </c>
       <c r="R3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -638,7 +643,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -647,7 +652,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>448</v>
+        <v>286</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -676,38 +681,38 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_3h4c9.png</t>
+          <t>stimuli/img_t4hvr.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>85.47619047619048</v>
+        <v>61.69230769230769</v>
       </c>
       <c r="N4">
-        <v>67.26190476190476</v>
+        <v>39.76923076923077</v>
       </c>
       <c r="O4">
-        <v>76.36904761904762</v>
+        <v>50.73076923076923</v>
       </c>
       <c r="P4">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="V4">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +725,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -729,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>449</v>
+        <v>287</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -741,55 +746,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_le8uf.png</t>
+          <t>stimuli/img_qbdgm.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>12.88888888888889</v>
+        <v>76.88095238095238</v>
       </c>
       <c r="N5">
-        <v>9.222222222222221</v>
+        <v>60.40476190476191</v>
       </c>
       <c r="O5">
-        <v>11.05555555555556</v>
+        <v>68.64285714285714</v>
       </c>
       <c r="P5">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -811,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>450</v>
+        <v>288</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -835,38 +835,38 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_zi682.png</t>
+          <t>stimuli/img_sfh4b.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>84.59999999999999</v>
+        <v>69.06521739130434</v>
       </c>
       <c r="N6">
-        <v>69.52500000000001</v>
+        <v>49.54347826086956</v>
       </c>
       <c r="O6">
-        <v>77.0625</v>
+        <v>59.30434782608695</v>
       </c>
       <c r="P6">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V6">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -888,7 +888,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>451</v>
+        <v>289</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -900,50 +900,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_kljj4.png</t>
+          <t>stimuli/img_2pnl2.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>64.34999999999999</v>
+        <v>6.621621621621622</v>
       </c>
       <c r="N7">
-        <v>44.15</v>
+        <v>7.135135135135135</v>
       </c>
       <c r="O7">
-        <v>54.25</v>
+        <v>6.878378378378379</v>
       </c>
       <c r="P7">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -956,7 +961,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -965,7 +970,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>452</v>
+        <v>290</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -977,55 +982,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_uxxo0.png</t>
+          <t>stimuli/img_i7vab.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>71.74418604651163</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="N8">
-        <v>48.44186046511628</v>
+        <v>67.8</v>
       </c>
       <c r="O8">
-        <v>60.09302325581395</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="P8">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V8">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>453</v>
+        <v>291</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1071,38 +1071,38 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_0nckg.png</t>
+          <t>stimuli/img_jge7p.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>65.94285714285714</v>
+        <v>90.42424242424242</v>
       </c>
       <c r="N9">
-        <v>41.17142857142857</v>
+        <v>75.63636363636364</v>
       </c>
       <c r="O9">
-        <v>53.55714285714285</v>
+        <v>83.03030303030303</v>
       </c>
       <c r="P9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="U9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V9">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1124,7 +1124,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>454</v>
+        <v>292</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1153,38 +1153,38 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_cogrz.png</t>
+          <t>stimuli/img_jivhq.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>60.5</v>
+        <v>37</v>
       </c>
       <c r="N10">
-        <v>39.71428571428572</v>
+        <v>22.26530612244898</v>
       </c>
       <c r="O10">
-        <v>50.10714285714286</v>
+        <v>29.63265306122449</v>
       </c>
       <c r="P10">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1206,7 +1206,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>455</v>
+        <v>293</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1235,38 +1235,38 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_wyctg.png</t>
+          <t>stimuli/img_9pfbj.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>33.44736842105263</v>
+        <v>91.27272727272727</v>
       </c>
       <c r="N11">
-        <v>11.39473684210526</v>
+        <v>80.09090909090909</v>
       </c>
       <c r="O11">
-        <v>22.42105263157895</v>
+        <v>85.68181818181819</v>
       </c>
       <c r="P11">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1288,7 +1288,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>456</v>
+        <v>294</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1300,55 +1300,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_jp28n.png</t>
+          <t>stimuli/img_9z99v.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>65.02564102564102</v>
+        <v>81.15625</v>
       </c>
       <c r="N12">
-        <v>44.97435897435897</v>
+        <v>64.78125</v>
       </c>
       <c r="O12">
-        <v>55</v>
+        <v>72.96875</v>
       </c>
       <c r="P12">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V12">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1361,7 +1356,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1370,7 +1365,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>457</v>
+        <v>295</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1399,38 +1394,38 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_a9acb.png</t>
+          <t>stimuli/img_2pk6v.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>77.11428571428571</v>
+        <v>85.08108108108108</v>
       </c>
       <c r="N13">
-        <v>58.42857142857143</v>
+        <v>66.16216216216216</v>
       </c>
       <c r="O13">
-        <v>67.77142857142857</v>
+        <v>75.62162162162161</v>
       </c>
       <c r="P13">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V13">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1443,7 +1438,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1452,27 +1447,67 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>458</v>
+        <v>296</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/catch_26.jpg</t>
-        </is>
+          <t>stimuli/img_5p2ql.png</t>
+        </is>
+      </c>
+      <c r="M14">
+        <v>89.19565217391305</v>
+      </c>
+      <c r="N14">
+        <v>72.52173913043478</v>
+      </c>
+      <c r="O14">
+        <v>80.85869565217391</v>
+      </c>
+      <c r="P14">
+        <v>46</v>
+      </c>
+      <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="R14">
+        <v>10</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14">
+        <v>10</v>
+      </c>
+      <c r="U14">
+        <v>10</v>
+      </c>
+      <c r="V14">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1485,7 +1520,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1494,7 +1529,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>459</v>
+        <v>297</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1506,50 +1541,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_zgg62.png</t>
+          <t>stimuli/img_yteqw.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>82.18421052631579</v>
+        <v>66.83783783783784</v>
       </c>
       <c r="N15">
-        <v>63.52631578947368</v>
+        <v>43.78378378378378</v>
       </c>
       <c r="O15">
-        <v>72.85526315789474</v>
+        <v>55.31081081081081</v>
       </c>
       <c r="P15">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V15">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1562,7 +1602,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1571,7 +1611,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>460</v>
+        <v>298</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1595,38 +1635,38 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_g2akb.png</t>
+          <t>stimuli/img_sltwe.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>87.875</v>
+        <v>72.02500000000001</v>
       </c>
       <c r="N16">
-        <v>79</v>
+        <v>46.875</v>
       </c>
       <c r="O16">
-        <v>83.4375</v>
+        <v>59.45</v>
       </c>
       <c r="P16">
         <v>40</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V16">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1639,7 +1679,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1648,7 +1688,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>461</v>
+        <v>299</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1660,55 +1700,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_f4jxo.png</t>
+          <t>stimuli/img_zv0dq.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>82.91666666666667</v>
+        <v>76.86842105263158</v>
       </c>
       <c r="N17">
-        <v>65.52777777777777</v>
+        <v>52.71052631578947</v>
       </c>
       <c r="O17">
-        <v>74.22222222222223</v>
+        <v>64.78947368421052</v>
       </c>
       <c r="P17">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V17">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1721,7 +1756,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1730,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>462</v>
+        <v>300</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1742,50 +1777,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_bpyv5.png</t>
+          <t>stimuli/img_3bxjb.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>59.05882352941177</v>
+        <v>87.28571428571429</v>
       </c>
       <c r="N18">
-        <v>37.55882352941177</v>
+        <v>72.65714285714286</v>
       </c>
       <c r="O18">
-        <v>48.30882352941177</v>
+        <v>79.97142857142858</v>
       </c>
       <c r="P18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="U18">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="V18">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1798,7 +1838,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1807,7 +1847,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>463</v>
+        <v>301</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1831,38 +1871,38 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_c4uwt.png</t>
+          <t>stimuli/img_6ddrx.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>44.48387096774194</v>
+        <v>82.2</v>
       </c>
       <c r="N19">
-        <v>30.06451612903226</v>
+        <v>63.68571428571428</v>
       </c>
       <c r="O19">
-        <v>37.2741935483871</v>
+        <v>72.94285714285715</v>
       </c>
       <c r="P19">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1875,7 +1915,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1884,67 +1924,27 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>464</v>
+        <v>302</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>bedrooms</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_cmyvx.png</t>
-        </is>
-      </c>
-      <c r="M20">
-        <v>64.25</v>
-      </c>
-      <c r="N20">
-        <v>40.09375</v>
-      </c>
-      <c r="O20">
-        <v>52.171875</v>
-      </c>
-      <c r="P20">
-        <v>32</v>
-      </c>
-      <c r="Q20">
-        <v>4</v>
-      </c>
-      <c r="R20">
-        <v>4</v>
-      </c>
-      <c r="S20">
-        <v>4</v>
-      </c>
-      <c r="T20">
-        <v>4</v>
-      </c>
-      <c r="U20">
-        <v>4</v>
-      </c>
-      <c r="V20">
-        <v>4</v>
+          <t>stimuli/catch_08.jpg</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1966,7 +1966,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>465</v>
+        <v>303</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1978,55 +1978,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_fnu4h.png</t>
+          <t>stimuli/img_bntrh.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>85.87179487179488</v>
+        <v>76.07894736842105</v>
       </c>
       <c r="N21">
-        <v>70.71794871794872</v>
+        <v>53.36842105263158</v>
       </c>
       <c r="O21">
-        <v>78.2948717948718</v>
+        <v>64.72368421052632</v>
       </c>
       <c r="P21">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R21">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S21">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T21">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U21">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V21">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -2039,7 +2034,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2048,7 +2043,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>466</v>
+        <v>304</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2077,20 +2072,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_rvssl.png</t>
+          <t>stimuli/img_gbypq.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>74.25</v>
+        <v>76.27500000000001</v>
       </c>
       <c r="N22">
-        <v>54.33333333333334</v>
+        <v>51.925</v>
       </c>
       <c r="O22">
-        <v>64.29166666666667</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="P22">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -2121,7 +2116,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2130,7 +2125,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>467</v>
+        <v>305</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2142,50 +2137,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_psgf7.png</t>
+          <t>stimuli/img_z3yzz.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>71.71052631578948</v>
       </c>
       <c r="N23">
-        <v>11.66666666666667</v>
+        <v>49.81578947368421</v>
       </c>
       <c r="O23">
-        <v>18.83333333333333</v>
+        <v>60.76315789473685</v>
       </c>
       <c r="P23">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2207,7 +2207,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>468</v>
+        <v>306</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2219,55 +2219,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_x0u5z.png</t>
+          <t>stimuli/img_65cdi.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>92</v>
+        <v>46.92307692307692</v>
       </c>
       <c r="N24">
-        <v>78.16216216216216</v>
+        <v>27</v>
       </c>
       <c r="O24">
-        <v>85.08108108108108</v>
+        <v>36.96153846153846</v>
       </c>
       <c r="P24">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2280,7 +2275,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2289,7 +2284,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>469</v>
+        <v>307</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2301,50 +2296,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_5yhyk.png</t>
+          <t>stimuli/img_ic3os.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>46.375</v>
+        <v>84.79069767441861</v>
       </c>
       <c r="N25">
-        <v>31.325</v>
+        <v>66.16279069767442</v>
       </c>
       <c r="O25">
-        <v>38.85</v>
+        <v>75.47674418604652</v>
       </c>
       <c r="P25">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="T25">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2366,7 +2366,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>470</v>
+        <v>308</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2390,38 +2390,38 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_ce55l.png</t>
+          <t>stimuli/img_bklr1.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>82.23809523809524</v>
+        <v>86.54761904761905</v>
       </c>
       <c r="N26">
-        <v>64.07142857142857</v>
+        <v>67.73809523809524</v>
       </c>
       <c r="O26">
-        <v>73.1547619047619</v>
+        <v>77.14285714285714</v>
       </c>
       <c r="P26">
         <v>42</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V26">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -2434,7 +2434,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2443,7 +2443,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>471</v>
+        <v>309</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2455,55 +2455,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_1vq1v.png</t>
+          <t>stimuli/img_o37la.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>69.42857142857143</v>
+        <v>65.24324324324324</v>
       </c>
       <c r="N27">
-        <v>46.59523809523809</v>
+        <v>42.78378378378378</v>
       </c>
       <c r="O27">
-        <v>58.01190476190476</v>
+        <v>54.01351351351352</v>
       </c>
       <c r="P27">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -2516,7 +2511,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2525,7 +2520,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>472</v>
+        <v>310</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2537,50 +2532,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_u2o6z.png</t>
+          <t>stimuli/img_cgdyc.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>58.6</v>
+        <v>32.93023255813954</v>
       </c>
       <c r="N28">
-        <v>38.2</v>
+        <v>14.04651162790698</v>
       </c>
       <c r="O28">
-        <v>48.40000000000001</v>
+        <v>23.48837209302326</v>
       </c>
       <c r="P28">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2602,7 +2602,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>473</v>
+        <v>311</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2614,55 +2614,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_oou46.png</t>
+          <t>stimuli/img_badai.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>75.70270270270271</v>
+        <v>63.97435897435897</v>
       </c>
       <c r="N29">
-        <v>54.86486486486486</v>
+        <v>43.38461538461539</v>
       </c>
       <c r="O29">
-        <v>65.28378378378379</v>
+        <v>53.67948717948718</v>
       </c>
       <c r="P29">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V29">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -2675,7 +2670,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2684,7 +2679,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>474</v>
+        <v>312</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2696,55 +2691,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>stimuli/img_2js6m.png</t>
+          <t>stimuli/img_l1h36.png</t>
         </is>
       </c>
       <c r="M30">
-        <v>40.02777777777778</v>
+        <v>26.64285714285714</v>
       </c>
       <c r="N30">
-        <v>20.88888888888889</v>
+        <v>9.142857142857142</v>
       </c>
       <c r="O30">
-        <v>30.45833333333334</v>
+        <v>17.89285714285714</v>
       </c>
       <c r="P30">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2757,7 +2747,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2766,7 +2756,7 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <v>475</v>
+        <v>313</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2778,50 +2768,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>stimuli/img_ca8kd.png</t>
+          <t>stimuli/img_kzg3h.png</t>
         </is>
       </c>
       <c r="M31">
-        <v>92.05405405405405</v>
+        <v>77.02777777777777</v>
       </c>
       <c r="N31">
-        <v>73.02702702702703</v>
+        <v>56.22222222222222</v>
       </c>
       <c r="O31">
-        <v>82.54054054054055</v>
+        <v>66.625</v>
       </c>
       <c r="P31">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R31">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S31">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T31">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U31">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V31">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -2834,7 +2829,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2843,7 +2838,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <v>476</v>
+        <v>314</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2855,55 +2850,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_5il0t.png</t>
+          <t>stimuli/img_ri0yx.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>48.09523809523809</v>
+        <v>88.96969696969697</v>
       </c>
       <c r="N32">
-        <v>30.90476190476191</v>
+        <v>77.15151515151516</v>
       </c>
       <c r="O32">
-        <v>39.5</v>
+        <v>83.06060606060606</v>
       </c>
       <c r="P32">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="Q32">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V32">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2916,7 +2906,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2925,7 +2915,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>477</v>
+        <v>315</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2937,50 +2927,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>stimuli/img_a8y4y.png</t>
+          <t>stimuli/img_v8dra.png</t>
         </is>
       </c>
       <c r="M33">
-        <v>75.15789473684211</v>
+        <v>61.77272727272727</v>
       </c>
       <c r="N33">
-        <v>53.76315789473684</v>
+        <v>38.79545454545455</v>
       </c>
       <c r="O33">
-        <v>64.46052631578948</v>
+        <v>50.28409090909091</v>
       </c>
       <c r="P33">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Q33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V33">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -2993,7 +2988,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -3002,7 +2997,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>478</v>
+        <v>316</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -3014,37 +3009,32 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>stimuli/img_juob3.png</t>
+          <t>stimuli/img_kn0we.png</t>
         </is>
       </c>
       <c r="M34">
-        <v>79.92105263157895</v>
+        <v>80.15909090909091</v>
       </c>
       <c r="N34">
-        <v>59.78947368421053</v>
+        <v>56.68181818181818</v>
       </c>
       <c r="O34">
-        <v>69.85526315789474</v>
+        <v>68.42045454545455</v>
       </c>
       <c r="P34">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -3075,7 +3065,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -3084,7 +3074,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <v>479</v>
+        <v>317</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3108,38 +3098,38 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>stimuli/img_4wq98.png</t>
+          <t>stimuli/img_fbihy.png</t>
         </is>
       </c>
       <c r="M35">
-        <v>78.48387096774194</v>
+        <v>44.39024390243902</v>
       </c>
       <c r="N35">
-        <v>58.12903225806452</v>
+        <v>26.90243902439024</v>
       </c>
       <c r="O35">
-        <v>68.30645161290323</v>
+        <v>35.64634146341464</v>
       </c>
       <c r="P35">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q35">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R35">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U35">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V35">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -3152,7 +3142,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -3161,7 +3151,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <v>480</v>
+        <v>318</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3190,38 +3180,38 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>stimuli/img_t2ioc.png</t>
+          <t>stimuli/img_bj2gr.png</t>
         </is>
       </c>
       <c r="M36">
-        <v>88.18918918918919</v>
+        <v>65.25</v>
       </c>
       <c r="N36">
-        <v>74.05405405405405</v>
+        <v>44.8</v>
       </c>
       <c r="O36">
-        <v>81.12162162162161</v>
+        <v>55.025</v>
       </c>
       <c r="P36">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q36">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R36">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S36">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T36">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U36">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V36">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -3234,7 +3224,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -3243,7 +3233,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>481</v>
+        <v>319</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3255,50 +3245,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>stimuli/img_gqy6z.png</t>
+          <t>stimuli/img_fqgem.png</t>
         </is>
       </c>
       <c r="M37">
-        <v>86.47368421052632</v>
+        <v>80.75</v>
       </c>
       <c r="N37">
-        <v>68.42105263157895</v>
+        <v>61.475</v>
       </c>
       <c r="O37">
-        <v>77.44736842105263</v>
+        <v>71.1125</v>
       </c>
       <c r="P37">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V37">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -3311,7 +3306,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -3320,7 +3315,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <v>482</v>
+        <v>320</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3332,50 +3327,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>stimuli/img_scrdm.png</t>
+          <t>stimuli/img_okvvw.png</t>
         </is>
       </c>
       <c r="M38">
-        <v>78.675</v>
+        <v>50.58333333333334</v>
       </c>
       <c r="N38">
-        <v>57.9</v>
+        <v>32.11111111111111</v>
       </c>
       <c r="O38">
-        <v>68.28749999999999</v>
+        <v>41.34722222222223</v>
       </c>
       <c r="P38">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q38">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R38">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T38">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U38">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V38">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3397,7 +3397,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <v>483</v>
+        <v>321</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3421,38 +3421,38 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_wijef.png</t>
+          <t>stimuli/img_dmjh8.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>69.875</v>
+        <v>57.48648648648648</v>
       </c>
       <c r="N39">
-        <v>48.025</v>
+        <v>37.64864864864865</v>
       </c>
       <c r="O39">
-        <v>58.95</v>
+        <v>47.56756756756756</v>
       </c>
       <c r="P39">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V39">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -3474,7 +3474,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>484</v>
+        <v>322</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3486,37 +3486,32 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>stimuli/img_72fmj.png</t>
+          <t>stimuli/img_7os7q.png</t>
         </is>
       </c>
       <c r="M40">
-        <v>53.87179487179487</v>
+        <v>59.7027027027027</v>
       </c>
       <c r="N40">
-        <v>36.02564102564103</v>
+        <v>34.94594594594594</v>
       </c>
       <c r="O40">
-        <v>44.94871794871795</v>
+        <v>47.32432432432432</v>
       </c>
       <c r="P40">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -3547,7 +3542,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -3556,7 +3551,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>485</v>
+        <v>323</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3568,50 +3563,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/img_0eflx.png</t>
+          <t>stimuli/img_aweye.png</t>
         </is>
       </c>
       <c r="M41">
-        <v>76.05128205128206</v>
+        <v>53.42105263157895</v>
       </c>
       <c r="N41">
-        <v>53.53846153846154</v>
+        <v>31.84210526315789</v>
       </c>
       <c r="O41">
-        <v>64.7948717948718</v>
+        <v>42.63157894736842</v>
       </c>
       <c r="P41">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V41">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3633,7 +3633,7 @@
         <v>41</v>
       </c>
       <c r="F42">
-        <v>486</v>
+        <v>324</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3657,38 +3657,38 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>stimuli/img_zt893.png</t>
+          <t>stimuli/img_c2pbs.png</t>
         </is>
       </c>
       <c r="M42">
-        <v>68.53191489361703</v>
+        <v>21.95238095238095</v>
       </c>
       <c r="N42">
-        <v>49.19148936170212</v>
+        <v>14.47619047619048</v>
       </c>
       <c r="O42">
-        <v>58.86170212765958</v>
+        <v>18.21428571428572</v>
       </c>
       <c r="P42">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V42">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
